--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2096122.059672364</v>
+        <v>2089105.044780652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.83975478324739</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>41.71399497201615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3298627762799</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>30.19289144459984</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>236.5936425514582</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.78026256753508</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>130.7621952949253</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>123.6883486222329</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>52.34452922604859</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>26.97444673954479</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.864878787377771e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>89.94499935903285</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>121.0738855299387</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>92.85067387733727</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.70811713027407</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.2083374376479</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>222.2435721011143</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>42.18007463019025</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.94831424933965</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>49.62468329227879</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>164.3675597136119</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>77.7414640267985</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.004887669471</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.004887669471</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>892.8524876647982</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>507.064235066554</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>96.07833027694642</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.744059709404</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.604727733592</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.5489038166068</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>181.5489038166068</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>181.5489038166068</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>181.5489038166068</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5489038166068</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.5489038166068</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620389</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185088</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,7 +4883,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.206002764199</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>861.0644906799231</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>861.0644906799231</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020477</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1446.043008713409</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1446.043008713409</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1156.914369926967</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>902.2298817210801</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
@@ -5539,7 +5539,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845919</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.8683222506741</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028974</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471151</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035276</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1097.067622329182</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1097.067622329182</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1097.067622329182</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>807.6504522922215</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>579.6609013942042</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>358.8683222506741</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,19 +5749,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>649.6418670412196</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="C22" t="n">
-        <v>649.6418670412196</v>
+        <v>506.0709201104335</v>
       </c>
       <c r="D22" t="n">
-        <v>649.6418670412196</v>
+        <v>506.0709201104335</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0709201104335</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1809726125231</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>191.0056509323437</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>191.0056509323437</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5925,37 +5925,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247821</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="X22" t="n">
-        <v>870.4344461847497</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="Y22" t="n">
-        <v>649.6418670412196</v>
+        <v>675.0071030383403</v>
       </c>
     </row>
     <row r="23">
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6177,7 +6177,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1359.311889307753</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1135.526474097259</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>846.3978353108171</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>846.3978353108171</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>846.3978353108171</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>846.3978353108171</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>139.823227450377</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1444.423023841398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1444.423023841398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1444.423023841398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1155.294385054956</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>900.6098968490689</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>611.1927268121083</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>611.1927268121083</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>390.4001476685781</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="41">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>484.4545387878456</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>315.5183558599388</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>315.5183558599388</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>315.5183558599388</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>315.5183558599388</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>147.3430341797594</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>484.4545387878456</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139967</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231161</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>128.4492947015951</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>145.5762807575547</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>140.272374359083</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>131.6025616993564</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>25.36007711663046</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.56857158693472</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>87.7258455162951</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>59.71247254595539</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>29.89407122271373</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>104.2538880163789</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.01603815445315</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>99.28914507525734</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.1793459568048</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117848</v>
@@ -26325,37 +26325,37 @@
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="O2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
@@ -26450,10 +26450,10 @@
         <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820902</v>
+        <v>-287066.8555820907</v>
       </c>
       <c r="C6" t="n">
         <v>302901.0236324545</v>
@@ -26530,40 +26530,40 @@
         <v>302901.023632454</v>
       </c>
       <c r="E6" t="n">
-        <v>-116726.3164225986</v>
+        <v>-117700.9076823203</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542977</v>
+        <v>407459.128794576</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617045</v>
+        <v>231035.9096019828</v>
       </c>
       <c r="K6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="L6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="M6" t="n">
-        <v>273632.7048204604</v>
+        <v>272658.1135607386</v>
       </c>
       <c r="N6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="O6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="P6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.8432868374356</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>372.0701750487788</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.09118524665138</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>221.0312760636895</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>149.6442961045954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.0517176144022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.4846258037025</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.94024844645424</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28578,13 +28578,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28727,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-2.384450055216938e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700209</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642242</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789685</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36293,7 +36293,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205989</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2089105.044780652</v>
+        <v>2094044.307629684</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>41.71399497201615</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.01104463634053</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>90.79446582485244</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>30.19289144459984</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C7" t="n">
-        <v>130.7621952949253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,13 +1429,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>123.6883486222329</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>10.00886850234444</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>52.34452922604859</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>26.97444673954479</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.864878787377771e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>14.97068936074846</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.85067387733727</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278749992</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>58.70811713027407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>104.4356141147659</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>38.77734509092903</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>222.2435721011143</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>42.18007463019025</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>3.96185752339996</v>
       </c>
     </row>
     <row r="41">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="H43" t="n">
-        <v>49.62468329227879</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>77.7414640267985</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>104.4356141147659</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.118186271549</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>892.8524876647982</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>507.064235066554</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>96.07833027694642</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>420.5427973766248</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>93.34807741262762</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4372,10 +4372,10 @@
         <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>563.6183715634427</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>145.6545634616296</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2666.651220872162</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.588333528591</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>566.6290395096265</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
         <v>412.2823606383756</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>861.0644906799231</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>861.0644906799231</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>633.0749397819058</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383756</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,25 +5299,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1446.043008713409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1446.043008713409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1156.914369926967</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>902.2298817210801</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>612.8127116841194</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
-        <v>612.8127116841194</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.4640073588198</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028974</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1483.794362112702</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1260.008946902208</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>970.8803081157661</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>716.1958199098792</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.0071030383403</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0709201104335</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0709201104335</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0709201104335</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1809726125231</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>191.0056509323437</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>191.0056509323437</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028583</v>
@@ -5919,43 +5919,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471147</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035276</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247821</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383403</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383403</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>675.0071030383403</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.0071030383403</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6174,7 +6174,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>303.4081673726145</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4081673726145</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>303.4081673726145</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1393.425751250058</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1104.297112463616</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W31" t="n">
-        <v>531.3977182706318</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X31" t="n">
-        <v>303.4081673726145</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y31" t="n">
-        <v>303.4081673726145</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,31 +7004,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>761.5137598931742</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>472.0965898562135</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>289.9398668627127</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>289.9398668627127</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>139.823227450377</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>692.3809108364826</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y40" t="n">
-        <v>471.5883316929525</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="41">
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>484.4545387878456</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C43" t="n">
-        <v>315.5183558599388</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D43" t="n">
-        <v>315.5183558599388</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E43" t="n">
-        <v>315.5183558599388</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F43" t="n">
-        <v>315.5183558599388</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G43" t="n">
-        <v>147.3430341797594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293931</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2471179313758</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>484.4545387878456</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1696912903951</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1420.389539217702</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1420.389539217702</v>
+        <v>1393.425751250058</v>
       </c>
       <c r="U46" t="n">
-        <v>1131.26090043126</v>
+        <v>1104.297112463616</v>
       </c>
       <c r="V46" t="n">
-        <v>876.5764122253731</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W46" t="n">
-        <v>587.1592421884125</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X46" t="n">
-        <v>359.1696912903951</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1696912903951</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>29.47535963978225</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>128.4492947015951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.5757848497504</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>85.64159028628167</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.5762807575547</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>140.272374359083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>182.9501206228548</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56857158693472</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318339</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>87.7258455162951</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>117.1119469436234</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>128.4694760076988</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986317</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>29.89407122271373</v>
+        <v>171.3064480792182</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.2538880163789</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>214.6227958286948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="H43" t="n">
-        <v>99.28914507525734</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>120.1793459568048</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>117.1119469436234</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26429,37 +26429,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820907</v>
+        <v>-287066.8555820904</v>
       </c>
       <c r="C6" t="n">
-        <v>302901.0236324545</v>
+        <v>302901.0236324538</v>
       </c>
       <c r="D6" t="n">
-        <v>302901.023632454</v>
+        <v>302901.0236324542</v>
       </c>
       <c r="E6" t="n">
-        <v>-117700.9076823203</v>
+        <v>-116823.7755485709</v>
       </c>
       <c r="F6" t="n">
-        <v>407459.128794576</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="G6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283255</v>
       </c>
       <c r="H6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="I6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="J6" t="n">
-        <v>231035.9096019828</v>
+        <v>231913.0417357323</v>
       </c>
       <c r="K6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="L6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="M6" t="n">
-        <v>272658.1135607386</v>
+        <v>273535.2456944881</v>
       </c>
       <c r="N6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283252</v>
       </c>
       <c r="O6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="P6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283253</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>372.0701750487788</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>233.1283069395047</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>221.0312760636895</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4846258037025</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.6390936003529</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28727,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.384450055216938e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28991,13 +28991,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-3.044307409159484e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-3.864878787377771e-12</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36287,13 +36287,13 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.309841178968</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515205989</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
